--- a/va_facility_data_2025-02-20/Glendive VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glendive%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Glendive VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glendive%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2389481207fa4ccd8a2d2a29917bfaf4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbb91c4c70dc54952972d89a88b0a9436"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0c54b0611df440f891a6aa8a85655f4d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6a6ccb6d4bb142e2adedeab254ec0b3f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R93aaa05f2194469eb57470bbd02d85a6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4d59106baf944dc6904665787e7d6153"/>
   </x:sheets>
 </x:workbook>
 </file>
